--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200217.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200217.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200217\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8427A7C-6EA5-486C-A4D1-6CB413E7D675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBFE125-3790-4E1D-9858-A646D53F12F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9594" uniqueCount="3340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9665" uniqueCount="3384">
   <si>
     <t>统计级别</t>
   </si>
@@ -10304,9 +10304,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>地区待确认</t>
-  </si>
-  <si>
     <t>内蒙古自治区卫生健康委员会</t>
   </si>
   <si>
@@ -10444,6 +10441,856 @@
   </si>
   <si>
     <t>区县级</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/18/292508.shtml</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/18/292509.shtml</t>
+  </si>
+  <si>
+    <t>http://wjw.nmg.gov.cn/doc/2020/02/18/292510.shtml</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察144人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察145人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察146人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察147人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察148人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察149人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察150人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察151人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察152人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察153人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察154人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察155人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察156人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察157人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察158人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察159人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察160人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察161人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察162人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察163人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察164人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察165人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察166人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察167人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察168人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察169人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察170人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察171人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察172人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察173人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察174人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察175人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察176人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察177人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察178人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察179人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察180人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察181人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察182人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察183人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察184人。</t>
+  </si>
+  <si>
+    <t>2020年2月17日9时至18日9时内蒙古自治区新冠肺炎疫情情况 2020年2月17日9时至18日9时，内蒙古自治区报告新增新冠肺炎确诊病例1例，无新增疑似病例。
+　　其中：新增确诊病例1例为通辽市的霍林郭勒市1例。
+　　新增通辽市的霍林郭勒市1例确诊病例，为2月16日疑似病例，与霍林郭勒市之前的确诊病例有亲属关系，经通辽市疾控中心实验室核酸检测为阳性，经专家组会诊，结合流行病学史，确诊为新冠肺炎确诊病例。
+　　截至2月18日9时，内蒙古自治区累计报告新冠肺炎确诊病例73例，出院病例8例，重症病例4例，危重病例6例。
+　　其中73例确诊病例为：
+　　1.鄂尔多斯市11例（达拉特旗9例、东胜区1例、鄂托克前旗1例）
+　　2.包头市11例（土默特右旗7例、昆都仑区3例、东河区1例）
+　　3.赤峰市9例（元宝山区2例、松山区2例、林西县1例、红山区1例、翁牛特旗3例）
+　　4.巴彦淖尔市8例（五原县2例、临河区2例、乌拉特中旗4例）
+　　5.锡林郭勒盟8例（锡林浩特市4例、二连浩特市1例、多伦县3例）​
+　　6.呼和浩特市7例(玉泉区3例、新城区2例、赛罕区1例、回民区1例)
+　　7.通辽市7例（霍林郭勒市6例、经济开发区1例）
+　　8.呼伦贝尔市6例（莫力达瓦旗4例、满洲里市1例、牙克石市1例）
+　　9.乌兰察布市3例（化德县2例、四子王旗1例）
+　　10.乌海市海勃湾区2例
+　　11.兴安盟乌兰浩特市1例
+　　确诊病例中，出院病例8例（鄂尔多斯市东胜区1例、鄂托克前旗1例、达拉特旗1例，乌兰察布市四子王旗1例，锡林郭勒盟二连浩特市1例，赤峰市松山区1例、林西县1例，呼伦贝尔市的满洲里市1例）；重症病例4例（赤峰市元宝山区1例、翁牛特旗1例，巴彦淖尔市临河区1例，通辽市的霍林郭勒市1例）；危重病例6例（包头市昆都仑区1例、土右旗1例，锡林郭勒盟锡林浩特市2例，巴彦淖尔市临河区1例，呼伦贝尔市莫力达瓦旗1例）。
+　　疑似病例16例（呼伦贝尔市莫力达瓦旗6例、海拉尔区1例，包头市土默特右旗2例、东河区1例、九原区1例，锡林郭勒盟多伦县2例，呼和浩特市赛罕区2例，通辽市的霍林郭勒市1例）。均在定点医院接受隔离治疗。目前，尚在接受医学观察的密切接触者607人。当日解除医学观察185人。</t>
   </si>
 </sst>
 </file>
@@ -10454,7 +11301,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10521,6 +11368,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10557,10 +11412,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10612,9 +11468,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -10892,10 +11753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11056,12 +11917,12 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" ht="409.5">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C2" s="14">
         <v>43878.375</v>
@@ -11095,35 +11956,38 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T2" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>3295</v>
+      <c r="U2" s="22" t="s">
+        <v>3342</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>3294</v>
       </c>
       <c r="W2" s="15"/>
       <c r="Z2" s="15"/>
       <c r="AA2" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>3335</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>3336</v>
       </c>
       <c r="AD2" s="15"/>
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="409.5">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C3" s="15">
         <v>43878.375</v>
@@ -11150,30 +12014,33 @@
         <v>1</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T3" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>3296</v>
+      <c r="U3" s="22" t="s">
+        <v>3343</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>3295</v>
       </c>
       <c r="AA3" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB3" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC3" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+    </row>
+    <row r="4" spans="1:40" ht="409.5">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C4" s="15">
         <v>43878.375</v>
@@ -11200,30 +12067,33 @@
         <v>1</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T4" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>3297</v>
+      <c r="U4" s="22" t="s">
+        <v>3344</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>3296</v>
       </c>
       <c r="AA4" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC4" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+    </row>
+    <row r="5" spans="1:40" ht="409.5">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C5" s="14">
         <v>43878.375</v>
@@ -11250,30 +12120,33 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T5" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>3298</v>
+      <c r="U5" s="22" t="s">
+        <v>3345</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>3297</v>
       </c>
       <c r="AA5" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB5" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AC5" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC5" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+    </row>
+    <row r="6" spans="1:40" ht="409.5">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C6" s="14">
         <v>43878.375</v>
@@ -11297,30 +12170,33 @@
         <v>3</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T6" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>3299</v>
+      <c r="U6" s="22" t="s">
+        <v>3346</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>3298</v>
       </c>
       <c r="AA6" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB6" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC6" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+    </row>
+    <row r="7" spans="1:40" ht="409.5">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C7" s="15">
         <v>43878.375</v>
@@ -11347,30 +12223,33 @@
         <v>1</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T7" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V7" s="13" t="s">
-        <v>3300</v>
+      <c r="U7" s="22" t="s">
+        <v>3347</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>3299</v>
       </c>
       <c r="AA7" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB7" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB7" s="13" t="s">
+      <c r="AC7" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC7" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+    </row>
+    <row r="8" spans="1:40" ht="409.5">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C8" s="14">
         <v>43878.375</v>
@@ -11397,30 +12276,33 @@
         <v>1</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T8" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V8" s="13" t="s">
-        <v>3301</v>
+      <c r="U8" s="22" t="s">
+        <v>3348</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>3300</v>
       </c>
       <c r="AA8" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AC8" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC8" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+    </row>
+    <row r="9" spans="1:40" ht="409.5">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C9" s="14">
         <v>43878.375</v>
@@ -11447,30 +12329,33 @@
         <v>1</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T9" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V9" s="13" t="s">
-        <v>3302</v>
+      <c r="U9" s="22" t="s">
+        <v>3349</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>3301</v>
       </c>
       <c r="AA9" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB9" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB9" s="13" t="s">
+      <c r="AC9" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC9" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+    </row>
+    <row r="10" spans="1:40" ht="409.5">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C10" s="15">
         <v>43878.375</v>
@@ -11494,30 +12379,33 @@
         <v>4</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T10" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V10" s="13" t="s">
-        <v>3303</v>
+      <c r="U10" s="22" t="s">
+        <v>3350</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>3302</v>
       </c>
       <c r="AA10" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB10" s="13" t="s">
+      <c r="AC10" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC10" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+    </row>
+    <row r="11" spans="1:40" ht="409.5">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C11" s="14">
         <v>43878.375</v>
@@ -11544,30 +12432,33 @@
         <v>2</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T11" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V11" s="13" t="s">
-        <v>3304</v>
+      <c r="U11" s="22" t="s">
+        <v>3351</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>3303</v>
       </c>
       <c r="AA11" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB11" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB11" s="13" t="s">
+      <c r="AC11" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC11" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+    </row>
+    <row r="12" spans="1:40" ht="409.5">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C12" s="15">
         <v>43878.375</v>
@@ -11591,30 +12482,33 @@
         <v>3</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T12" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>3305</v>
+      <c r="U12" s="22" t="s">
+        <v>3352</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>3304</v>
       </c>
       <c r="AA12" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB12" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB12" s="13" t="s">
+      <c r="AC12" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+    </row>
+    <row r="13" spans="1:40" ht="409.5">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C13" s="14">
         <v>43878.375</v>
@@ -11641,30 +12535,33 @@
         <v>1</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T13" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V13" s="13" t="s">
-        <v>3306</v>
+      <c r="U13" s="22" t="s">
+        <v>3353</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>3305</v>
       </c>
       <c r="AA13" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB13" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB13" s="13" t="s">
+      <c r="AC13" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC13" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+    </row>
+    <row r="14" spans="1:40" ht="409.5">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C14" s="14">
         <v>43878.375</v>
@@ -11688,30 +12585,33 @@
         <v>1</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T14" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V14" s="13" t="s">
-        <v>3307</v>
+      <c r="U14" s="22" t="s">
+        <v>3354</v>
+      </c>
+      <c r="V14" s="21" t="s">
+        <v>3306</v>
       </c>
       <c r="AA14" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB14" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB14" s="13" t="s">
+      <c r="AC14" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+    </row>
+    <row r="15" spans="1:40" ht="409.5">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C15" s="15">
         <v>43878.375</v>
@@ -11735,30 +12635,33 @@
         <v>2</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T15" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V15" s="13" t="s">
-        <v>3308</v>
+      <c r="U15" s="22" t="s">
+        <v>3355</v>
+      </c>
+      <c r="V15" s="21" t="s">
+        <v>3307</v>
       </c>
       <c r="AA15" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB15" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB15" s="13" t="s">
+      <c r="AC15" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC15" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+    </row>
+    <row r="16" spans="1:40" ht="409.5">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C16" s="14">
         <v>43878.375</v>
@@ -11782,30 +12685,33 @@
         <v>2</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T16" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V16" s="13" t="s">
-        <v>3309</v>
+      <c r="U16" s="22" t="s">
+        <v>3356</v>
+      </c>
+      <c r="V16" s="21" t="s">
+        <v>3308</v>
       </c>
       <c r="AA16" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB16" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB16" s="13" t="s">
+      <c r="AC16" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC16" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
+    </row>
+    <row r="17" spans="1:29" ht="409.5">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C17" s="15">
         <v>43878.375</v>
@@ -11832,30 +12738,33 @@
         <v>1</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T17" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V17" s="13" t="s">
-        <v>3310</v>
+      <c r="U17" s="22" t="s">
+        <v>3357</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>3309</v>
       </c>
       <c r="AA17" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB17" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB17" s="13" t="s">
+      <c r="AC17" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC17" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+    </row>
+    <row r="18" spans="1:29" ht="409.5">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C18" s="14">
         <v>43878.375</v>
@@ -11882,30 +12791,33 @@
         <v>1</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T18" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V18" s="13" t="s">
-        <v>3311</v>
+      <c r="U18" s="22" t="s">
+        <v>3358</v>
+      </c>
+      <c r="V18" s="21" t="s">
+        <v>3310</v>
       </c>
       <c r="AA18" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB18" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB18" s="13" t="s">
+      <c r="AC18" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+    </row>
+    <row r="19" spans="1:29" ht="409.5">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C19" s="15">
         <v>43878.375</v>
@@ -11929,30 +12841,33 @@
         <v>1</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T19" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V19" s="13" t="s">
-        <v>3312</v>
+      <c r="U19" s="22" t="s">
+        <v>3359</v>
+      </c>
+      <c r="V19" s="21" t="s">
+        <v>3311</v>
       </c>
       <c r="AA19" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB19" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB19" s="13" t="s">
+      <c r="AC19" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC19" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+    </row>
+    <row r="20" spans="1:29" ht="409.5">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C20" s="14">
         <v>43878.375</v>
@@ -11976,30 +12891,33 @@
         <v>3</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T20" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V20" s="13" t="s">
-        <v>3313</v>
+      <c r="U20" s="22" t="s">
+        <v>3360</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>3312</v>
       </c>
       <c r="AA20" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB20" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB20" s="13" t="s">
+      <c r="AC20" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC20" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+    </row>
+    <row r="21" spans="1:29" ht="409.5">
       <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C21" s="15">
         <v>43878.375</v>
@@ -12020,30 +12938,33 @@
         <v>8</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T21" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V21" s="13" t="s">
-        <v>3314</v>
+      <c r="U21" s="22" t="s">
+        <v>3361</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>3313</v>
       </c>
       <c r="AA21" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB21" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AC21" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC21" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+    </row>
+    <row r="22" spans="1:29" ht="409.5">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C22" s="14">
         <v>43878.375</v>
@@ -12067,30 +12988,33 @@
         <v>2</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T22" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V22" s="13" t="s">
-        <v>3315</v>
+      <c r="U22" s="22" t="s">
+        <v>3362</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>3314</v>
       </c>
       <c r="AA22" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB22" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB22" s="13" t="s">
+      <c r="AC22" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC22" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
+    </row>
+    <row r="23" spans="1:29" ht="409.5">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C23" s="15">
         <v>43878.375</v>
@@ -12114,30 +13038,33 @@
         <v>2</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T23" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V23" s="13" t="s">
-        <v>3316</v>
+      <c r="U23" s="22" t="s">
+        <v>3363</v>
+      </c>
+      <c r="V23" s="21" t="s">
+        <v>3315</v>
       </c>
       <c r="AA23" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB23" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB23" s="13" t="s">
+      <c r="AC23" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC23" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+    </row>
+    <row r="24" spans="1:29" ht="409.5">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C24" s="14">
         <v>43878.375</v>
@@ -12161,30 +13088,33 @@
         <v>4</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T24" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V24" s="13" t="s">
-        <v>3317</v>
+      <c r="U24" s="22" t="s">
+        <v>3364</v>
+      </c>
+      <c r="V24" s="21" t="s">
+        <v>3316</v>
       </c>
       <c r="AA24" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB24" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB24" s="13" t="s">
+      <c r="AC24" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC24" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
+    </row>
+    <row r="25" spans="1:29" ht="409.5">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C25" s="15">
         <v>43878.375</v>
@@ -12211,30 +13141,33 @@
         <v>1</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T25" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V25" s="13" t="s">
-        <v>3318</v>
+      <c r="U25" s="22" t="s">
+        <v>3365</v>
+      </c>
+      <c r="V25" s="21" t="s">
+        <v>3317</v>
       </c>
       <c r="AA25" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB25" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB25" s="13" t="s">
+      <c r="AC25" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC25" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+    </row>
+    <row r="26" spans="1:29" ht="409.5">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C26" s="14">
         <v>43878.375</v>
@@ -12258,30 +13191,33 @@
         <v>4</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T26" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V26" s="13" t="s">
-        <v>3319</v>
+      <c r="U26" s="22" t="s">
+        <v>3366</v>
+      </c>
+      <c r="V26" s="21" t="s">
+        <v>3318</v>
       </c>
       <c r="AA26" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB26" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB26" s="13" t="s">
+      <c r="AC26" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC26" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+    </row>
+    <row r="27" spans="1:29" ht="409.5">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C27" s="14">
         <v>43878.375</v>
@@ -12308,30 +13244,33 @@
         <v>1</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T27" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V27" s="13" t="s">
-        <v>3320</v>
+      <c r="U27" s="22" t="s">
+        <v>3367</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>3319</v>
       </c>
       <c r="AA27" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB27" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB27" s="13" t="s">
+      <c r="AC27" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC27" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+    </row>
+    <row r="28" spans="1:29" ht="409.5">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C28" s="15">
         <v>43878.375</v>
@@ -12358,30 +13297,33 @@
         <v>2</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T28" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V28" s="13" t="s">
-        <v>3321</v>
+      <c r="U28" s="22" t="s">
+        <v>3368</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>3320</v>
       </c>
       <c r="AA28" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB28" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB28" s="13" t="s">
+      <c r="AC28" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC28" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+    </row>
+    <row r="29" spans="1:29" ht="409.5">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C29" s="14">
         <v>43878.375</v>
@@ -12405,30 +13347,33 @@
         <v>2</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T29" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V29" s="13" t="s">
-        <v>3322</v>
+      <c r="U29" s="22" t="s">
+        <v>3369</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>3321</v>
       </c>
       <c r="AA29" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB29" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB29" s="13" t="s">
+      <c r="AC29" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC29" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
+    </row>
+    <row r="30" spans="1:29" ht="409.5">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C30" s="14">
         <v>43878.375</v>
@@ -12452,30 +13397,33 @@
         <v>3</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T30" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V30" s="13" t="s">
-        <v>3323</v>
+      <c r="U30" s="22" t="s">
+        <v>3370</v>
+      </c>
+      <c r="V30" s="21" t="s">
+        <v>3322</v>
       </c>
       <c r="AA30" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB30" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB30" s="13" t="s">
+      <c r="AC30" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC30" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+    </row>
+    <row r="31" spans="1:29" ht="409.5">
       <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C31" s="15">
         <v>43878.375</v>
@@ -12499,30 +13447,33 @@
         <v>2</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T31" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V31" s="13" t="s">
-        <v>3324</v>
+      <c r="U31" s="22" t="s">
+        <v>3371</v>
+      </c>
+      <c r="V31" s="21" t="s">
+        <v>3323</v>
       </c>
       <c r="AA31" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB31" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB31" s="13" t="s">
+      <c r="AC31" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC31" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+    </row>
+    <row r="32" spans="1:29" ht="409.5">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C32" s="14">
         <v>43878.375</v>
@@ -12549,30 +13500,33 @@
         <v>2</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T32" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V32" s="13" t="s">
-        <v>3325</v>
+      <c r="U32" s="22" t="s">
+        <v>3372</v>
+      </c>
+      <c r="V32" s="21" t="s">
+        <v>3324</v>
       </c>
       <c r="AA32" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB32" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB32" s="13" t="s">
+      <c r="AC32" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
+    </row>
+    <row r="33" spans="1:29" ht="409.5">
       <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C33" s="14">
         <v>43878.375</v>
@@ -12596,30 +13550,33 @@
         <v>1</v>
       </c>
       <c r="S33" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T33" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V33" s="13" t="s">
-        <v>3326</v>
+      <c r="U33" s="22" t="s">
+        <v>3373</v>
+      </c>
+      <c r="V33" s="21" t="s">
+        <v>3325</v>
       </c>
       <c r="AA33" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB33" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB33" s="13" t="s">
+      <c r="AC33" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC33" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+    </row>
+    <row r="34" spans="1:29" ht="409.5">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C34" s="15">
         <v>43878.375</v>
@@ -12646,30 +13603,33 @@
         <v>1</v>
       </c>
       <c r="S34" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T34" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V34" s="13" t="s">
-        <v>3327</v>
+      <c r="U34" s="22" t="s">
+        <v>3374</v>
+      </c>
+      <c r="V34" s="21" t="s">
+        <v>3326</v>
       </c>
       <c r="AA34" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB34" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB34" s="13" t="s">
+      <c r="AC34" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC34" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+    </row>
+    <row r="35" spans="1:29" ht="409.5">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C35" s="14">
         <v>43878.375</v>
@@ -12696,30 +13656,33 @@
         <v>6</v>
       </c>
       <c r="S35" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T35" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V35" s="13" t="s">
-        <v>3328</v>
+      <c r="U35" s="22" t="s">
+        <v>3375</v>
+      </c>
+      <c r="V35" s="21" t="s">
+        <v>3327</v>
       </c>
       <c r="AA35" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB35" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB35" s="13" t="s">
+      <c r="AC35" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC35" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+    </row>
+    <row r="36" spans="1:29" ht="409.5">
       <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C36" s="14">
         <v>43878.375</v>
@@ -12743,30 +13706,33 @@
         <v>1</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T36" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V36" s="13" t="s">
-        <v>3329</v>
+      <c r="U36" s="22" t="s">
+        <v>3376</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>3328</v>
       </c>
       <c r="AA36" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB36" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB36" s="13" t="s">
+      <c r="AC36" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC36" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+    </row>
+    <row r="37" spans="1:29" ht="409.5">
       <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C37" s="14">
         <v>43878.375</v>
@@ -12793,30 +13759,33 @@
         <v>1</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T37" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V37" s="13" t="s">
-        <v>3330</v>
+      <c r="U37" s="22" t="s">
+        <v>3377</v>
+      </c>
+      <c r="V37" s="21" t="s">
+        <v>3329</v>
       </c>
       <c r="AA37" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB37" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB37" s="13" t="s">
+      <c r="AC37" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC37" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
-      <c r="A38" s="12">
+    </row>
+    <row r="38" spans="1:29" ht="409.5">
+      <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="C38" s="15">
         <v>43878.375</v>
@@ -12840,30 +13809,33 @@
         <v>1</v>
       </c>
       <c r="S38" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T38" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V38" s="13" t="s">
-        <v>3331</v>
+      <c r="U38" s="22" t="s">
+        <v>3378</v>
+      </c>
+      <c r="V38" s="21" t="s">
+        <v>3330</v>
       </c>
       <c r="AA38" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB38" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB38" s="13" t="s">
+      <c r="AC38" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC38" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="13">
+    </row>
+    <row r="39" spans="1:29" ht="409.5">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C39" s="14">
         <v>43878.375</v>
@@ -12887,35 +13859,38 @@
         <v>1</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="T39" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V39" s="13" t="s">
-        <v>3332</v>
+      <c r="U39" s="22" t="s">
+        <v>3379</v>
+      </c>
+      <c r="V39" s="21" t="s">
+        <v>3331</v>
       </c>
       <c r="AA39" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB39" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB39" s="13" t="s">
+      <c r="AC39" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC39" s="13" t="s">
-        <v>3336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="12">
+    </row>
+    <row r="40" spans="1:29" ht="409.5">
+      <c r="A40" s="13">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C40" s="14">
         <v>43878.375</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="14">
         <v>43879.375</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -12925,28 +13900,178 @@
         <v>14</v>
       </c>
       <c r="G40" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" s="13">
+        <v>1</v>
+      </c>
+      <c r="S40" s="13" t="s">
         <v>3293</v>
-      </c>
-      <c r="M40" s="13">
-        <v>3</v>
-      </c>
-      <c r="S40" s="13" t="s">
-        <v>3294</v>
       </c>
       <c r="T40" s="15">
         <v>43879.4</v>
       </c>
-      <c r="V40" s="13" t="s">
+      <c r="U40" s="22" t="s">
+        <v>3380</v>
+      </c>
+      <c r="V40" s="21" t="s">
+        <v>3332</v>
+      </c>
+      <c r="AA40" s="13" t="s">
         <v>3333</v>
       </c>
-      <c r="AA40" s="13" t="s">
+      <c r="AB40" s="13" t="s">
         <v>3334</v>
       </c>
-      <c r="AB40" s="13" t="s">
+      <c r="AC40" s="13" t="s">
         <v>3335</v>
       </c>
-      <c r="AC40" s="13" t="s">
-        <v>3336</v>
+    </row>
+    <row r="41" spans="1:29" ht="409.5">
+      <c r="A41" s="13">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C41" s="15">
+        <v>43878.375</v>
+      </c>
+      <c r="D41" s="20">
+        <v>43879.375</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="M41" s="13">
+        <v>1</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T41" s="15">
+        <v>43879.4</v>
+      </c>
+      <c r="U41" s="22" t="s">
+        <v>3381</v>
+      </c>
+      <c r="V41" s="21" t="s">
+        <v>3339</v>
+      </c>
+      <c r="AA41" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB41" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AC41" s="13" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="409.5">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C42" s="14">
+        <v>43878.375</v>
+      </c>
+      <c r="D42" s="14">
+        <v>43879.375</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" s="13">
+        <v>2</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T42" s="15">
+        <v>43879.4</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>3382</v>
+      </c>
+      <c r="V42" s="21" t="s">
+        <v>3340</v>
+      </c>
+      <c r="AA42" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB42" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AC42" s="13" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="409.5">
+      <c r="A43" s="13">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C43" s="14">
+        <v>43878.375</v>
+      </c>
+      <c r="D43" s="14">
+        <v>43879.375</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="M43" s="13">
+        <v>2</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="T43" s="15">
+        <v>43879.4</v>
+      </c>
+      <c r="U43" s="22" t="s">
+        <v>3383</v>
+      </c>
+      <c r="V43" s="21" t="s">
+        <v>3341</v>
+      </c>
+      <c r="AA43" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="AB43" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>3335</v>
       </c>
     </row>
   </sheetData>
@@ -12975,8 +14100,18 @@
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{7903CA30-3896-467E-9973-C3BA1A776CB4}"/>
+    <hyperlink ref="V3:V15" r:id="rId2" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{9E210C2B-0F1B-4132-B9FA-A8C3FE400FDA}"/>
+    <hyperlink ref="V16" r:id="rId3" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{70DF4FB0-96E0-4EA6-8C8E-4DB138F9D71F}"/>
+    <hyperlink ref="V30" r:id="rId4" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{785F0DFB-FC7E-4EF6-A924-0EFE8FC35F7F}"/>
+    <hyperlink ref="V17:V29" r:id="rId5" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{E5B3CC3C-36C1-46BE-8E37-97A3FEEA3F3A}"/>
+    <hyperlink ref="V31:V34" r:id="rId6" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{EAF2888D-3B9D-4838-91AA-54107866BCCF}"/>
+    <hyperlink ref="V35" r:id="rId7" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{020AD5B4-0730-451E-A925-1AC7564080DB}"/>
+    <hyperlink ref="V36:V43" r:id="rId8" display="http://wjw.nmg.gov.cn/doc/2020/02/18/292469.shtml" xr:uid="{1325DD7D-7230-44AD-B087-B67887F0A185}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
